--- a/documents/DFS vs. BFS vs. Prim vs. Dijkstra.xlsx
+++ b/documents/DFS vs. BFS vs. Prim vs. Dijkstra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\git-projects\baekjoon-mugen-houyou\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E0BF0B-EA43-4989-981C-A25F6A4968CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E679DD53-7299-49B7-B54C-360215F248A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="0" windowWidth="25950" windowHeight="17655" xr2:uid="{8AE8B4CE-BDDE-46A7-8DBB-4561F8BC766B}"/>
+    <workbookView xWindow="3000" yWindow="0" windowWidth="25950" windowHeight="14775" xr2:uid="{8AE8B4CE-BDDE-46A7-8DBB-4561F8BC766B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3216,6 +3216,7 @@
       <family val="3"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Cascadia Mono"/>
@@ -3674,7 +3675,7 @@
   <dimension ref="A1:AV26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
